--- a/apps/pit/Pinch.xlsx
+++ b/apps/pit/Pinch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovais\git\ucdavis-shinyr\apps\pit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/ovkhan_ucdavis_edu/Documents/git_mac/IAC-Decarb-Tools/apps/pit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CF5E86-67A3-45B0-A16D-975B2F380700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="108_{A07C9F0B-908B-A04B-900D-3E3C3CEB48C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{441EF13B-B6FE-4A4F-997B-7879B27FE7C5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" activeTab="1" xr2:uid="{441EF13B-B6FE-4A4F-997B-7879B27FE7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinch " sheetId="2" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1047,6 +1047,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1054,7 +1055,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1687,6 +1687,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1694,7 +1695,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2350,6 +2350,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2357,7 +2358,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2899,6 +2899,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2906,7 +2907,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3224,6 +3224,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3231,7 +3232,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7337,21 +7337,21 @@
       <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="54.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>5</v>
@@ -7395,7 +7395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I11">
         <v>0</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>35</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>15.434782608695652</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>60</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>7.3844393592677342</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>70</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>23.768878718535468</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>90</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>44.306636155606405</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>150</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>12.105263157894736</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>24</v>
       </c>
@@ -7605,10 +7605,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>16</v>
@@ -7628,7 +7628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>13</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>14</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I27">
         <v>7</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>70</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>95</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>105</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>88.12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>160</v>
       </c>
@@ -7828,18 +7828,18 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F34">
         <f>SUM(F30:F33)</f>
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>39</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>0</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
         <v>15.434782608695652</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="5">
         <v>7.3844393592677342</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="5">
         <v>23.768878718535468</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="5">
         <v>44.306636155606405</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="5">
         <v>12.105263157894736</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="5">
         <v>0</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46" s="5">
         <v>10.92</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="5">
         <v>2.8000000000000003</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C48" s="5">
         <v>88.12</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C49" s="5">
         <v>6.16</v>
       </c>
@@ -7988,12 +7988,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>0</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="5">
         <v>15.434782608695652</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="5">
         <v>7.3844393592677342</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="5">
         <v>23.768878718535468</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="5">
         <v>44.306636155606405</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="5">
         <v>12.105263157894736</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
         <v>0</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
         <v>10.92</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
         <v>2.8000000000000003</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
         <v>88.12</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
         <v>6.16</v>
       </c>
@@ -8144,12 +8144,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0.84466019417475724</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -8208,12 +8208,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>0.50467289719626163</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -8240,58 +8240,58 @@
         <v>0.52427184466019416</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F100" s="5"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>63</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>9</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="5">
         <f>7+(70-35)/(160-35)*14</f>
         <v>10.92</v>
@@ -8325,7 +8325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="5">
         <f>(95-70)/(160-35)*14</f>
         <v>2.8000000000000003</v>
@@ -8337,7 +8337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="5">
         <f>(105-95)/(105-95)*87+(105-95)/(160-35)*14</f>
         <v>88.12</v>
@@ -8349,7 +8349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="5">
         <f>(160-105)/(160-35)*14</f>
         <v>6.16</v>
@@ -8361,12 +8361,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>9</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>0</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="5">
         <f>7+(70-35)/(160-35)*14</f>
         <v>10.92</v>
@@ -8401,7 +8401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="5">
         <f>(95-70)/(160-35)*14</f>
         <v>2.8000000000000003</v>
@@ -8414,7 +8414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="5">
         <f>(105-95)/(105-95)*87+(105-95)/(160-35)*14</f>
         <v>88.12</v>
@@ -8427,7 +8427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="5">
         <f>(160-105)/(160-35)*14</f>
         <v>6.16</v>
@@ -8452,19 +8452,19 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>67</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -8656,13 +8656,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C2" s="14" t="s">
         <v>68</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" s="16" t="s">
         <v>72</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
@@ -8714,7 +8714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E6" s="16" t="s">
         <v>77</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E7" s="16" t="s">
         <v>78</v>
       </c>
@@ -8743,14 +8743,14 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -8994,15 +8994,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36349EE4-8743-4275-95B0-0EE709FF3902}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7f8b2b10-a8de-45fe-8018-6d7fcf2dd882"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7f8b2b10-a8de-45fe-8018-6d7fcf2dd882"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/apps/pit/Pinch.xlsx
+++ b/apps/pit/Pinch.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/ovkhan_ucdavis_edu/Documents/git_mac/IAC-Decarb-Tools/apps/pit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/ovkhan_ucdavis_edu/Documents/git_mac/IAC-Decarb-Tools-Dev/apps/pit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="108_{A07C9F0B-908B-A04B-900D-3E3C3CEB48C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{81CF5E86-67A3-45B0-A16D-975B2F380700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C84C059A-EC31-2B41-A794-D10A5B337288}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" activeTab="1" xr2:uid="{441EF13B-B6FE-4A4F-997B-7879B27FE7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinch " sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Streams" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>Pinch Analysis: Thermodynamic and Techno-economic HX Potential</t>
   </si>
@@ -251,31 +250,10 @@
     <t>Tout</t>
   </si>
   <si>
-    <t>mCp</t>
-  </si>
-  <si>
     <t>°F</t>
   </si>
   <si>
-    <t>°C</t>
-  </si>
-  <si>
     <t>MMBtu/hr</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>MJ/hr</t>
-  </si>
-  <si>
-    <t>MMBtu/°F-hr</t>
-  </si>
-  <si>
-    <t>MW/°C</t>
-  </si>
-  <si>
-    <t>MJ/°C-hr</t>
   </si>
   <si>
     <t>Hot Water</t>
@@ -294,18 +272,6 @@
   </si>
   <si>
     <t>Waste-Water</t>
-  </si>
-  <si>
-    <t>kW/°C</t>
-  </si>
-  <si>
-    <t>kJ/°C-hr</t>
-  </si>
-  <si>
-    <t>kJ/hr</t>
-  </si>
-  <si>
-    <t>kW</t>
   </si>
 </sst>
 </file>
@@ -8452,7 +8418,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8488,13 +8454,13 @@
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -8503,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C3" s="5">
         <v>55</v>
@@ -8523,7 +8489,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>179</v>
@@ -8543,7 +8509,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>170</v>
@@ -8563,7 +8529,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5">
         <v>170</v>
@@ -8583,7 +8549,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5">
         <v>94.476759289787196</v>
@@ -8603,7 +8569,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>75</v>
@@ -8626,13 +8592,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2A331D1-F568-4B2B-98B5-813334EA5284}">
           <x14:formula1>
-            <xm:f>Sheet3!$C$3:$C$4</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C2:D2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC09B3B6-AE78-4D4A-93DE-984556E2C91D}">
           <x14:formula1>
-            <xm:f>Sheet3!$F$3:$F$7</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
@@ -8649,93 +8615,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59316CEE-5091-4D0C-AF84-A153BD5A97B8}">
-  <dimension ref="C2:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF33AA2-05A8-47E9-B272-F49E875613E6}">
   <dimension ref="C2:C3"/>
   <sheetViews>
@@ -8994,15 +8873,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36349EE4-8743-4275-95B0-0EE709FF3902}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7f8b2b10-a8de-45fe-8018-6d7fcf2dd882"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f8b2b10-a8de-45fe-8018-6d7fcf2dd882"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>